--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-26.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>League</t>
   </si>
@@ -229,6 +229,9 @@
     <t>Avranches</t>
   </si>
   <si>
+    <t>GOA Lyonnaise</t>
+  </si>
+  <si>
     <t>Solihull Moors</t>
   </si>
   <si>
@@ -241,6 +244,9 @@
     <t>Villefranche Beaujolais</t>
   </si>
   <si>
+    <t>Sochaux</t>
+  </si>
+  <si>
     <t>Southend</t>
   </si>
   <si>
@@ -250,13 +256,13 @@
     <t>Wealdstone</t>
   </si>
   <si>
-    <t>33135801</t>
-  </si>
-  <si>
-    <t>1.226623390</t>
-  </si>
-  <si>
-    <t>1.226623435</t>
+    <t>33131723</t>
+  </si>
+  <si>
+    <t>1.226632059</t>
+  </si>
+  <si>
+    <t>1.226632062</t>
   </si>
 </sst>
 </file>
@@ -614,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM5"/>
+  <dimension ref="A1:BM6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -831,37 +837,37 @@
         <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F2">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="H2">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="I2">
         <v>1000</v>
       </c>
       <c r="J2">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="K2">
         <v>1000</v>
       </c>
       <c r="L2">
-        <v>1.2</v>
+        <v>1.64</v>
       </c>
       <c r="M2">
-        <v>1000</v>
+        <v>1.87</v>
       </c>
       <c r="N2">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="O2">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -989,8 +995,8 @@
       <c r="BE2">
         <v>0</v>
       </c>
-      <c r="BF2" t="s">
-        <v>78</v>
+      <c r="BF2">
+        <v>33135801</v>
       </c>
       <c r="BG2">
         <v>2224930</v>
@@ -1001,11 +1007,11 @@
       <c r="BI2">
         <v>58805</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>80</v>
+      <c r="BJ2">
+        <v>1.22662339</v>
+      </c>
+      <c r="BK2">
+        <v>1.226623435</v>
       </c>
       <c r="BL2">
         <v>0</v>
@@ -1016,49 +1022,49 @@
     </row>
     <row r="3" spans="1:65">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
         <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3">
-        <v>2.42</v>
+        <v>1.49</v>
       </c>
       <c r="G3">
-        <v>3.3</v>
+        <v>480</v>
       </c>
       <c r="H3">
-        <v>2.36</v>
+        <v>1.46</v>
       </c>
       <c r="I3">
-        <v>3.75</v>
+        <v>870</v>
       </c>
       <c r="J3">
-        <v>3.15</v>
+        <v>1.2</v>
       </c>
       <c r="K3">
-        <v>6.2</v>
+        <v>330</v>
       </c>
       <c r="L3">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="M3">
-        <v>3.45</v>
+        <v>2.06</v>
       </c>
       <c r="N3">
-        <v>1.41</v>
+        <v>1.96</v>
       </c>
       <c r="O3">
-        <v>2.8</v>
+        <v>2.32</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1186,23 +1192,23 @@
       <c r="BE3">
         <v>0</v>
       </c>
-      <c r="BF3">
-        <v>33130512</v>
+      <c r="BF3" t="s">
+        <v>80</v>
       </c>
       <c r="BG3">
-        <v>2437395</v>
+        <v>50613810</v>
       </c>
       <c r="BH3">
-        <v>69719</v>
+        <v>44796</v>
       </c>
       <c r="BI3">
         <v>58805</v>
       </c>
-      <c r="BJ3">
-        <v>1.226521641</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
+      <c r="BJ3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>82</v>
       </c>
       <c r="BL3">
         <v>0</v>
@@ -1225,37 +1231,37 @@
         <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4">
-        <v>1.73</v>
+        <v>2.44</v>
       </c>
       <c r="G4">
-        <v>2.28</v>
+        <v>3.15</v>
       </c>
       <c r="H4">
-        <v>3.6</v>
+        <v>2.52</v>
       </c>
       <c r="I4">
-        <v>7.2</v>
+        <v>3.7</v>
       </c>
       <c r="J4">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="K4">
-        <v>7</v>
+        <v>5.2</v>
       </c>
       <c r="L4">
-        <v>2.2</v>
+        <v>1.59</v>
       </c>
       <c r="M4">
-        <v>990</v>
+        <v>3.05</v>
       </c>
       <c r="N4">
-        <v>1.1</v>
+        <v>1.49</v>
       </c>
       <c r="O4">
-        <v>1.82</v>
+        <v>2.68</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1384,19 +1390,19 @@
         <v>0</v>
       </c>
       <c r="BF4">
-        <v>33130509</v>
+        <v>33130512</v>
       </c>
       <c r="BG4">
-        <v>18571</v>
+        <v>2437395</v>
       </c>
       <c r="BH4">
-        <v>48303</v>
+        <v>69719</v>
       </c>
       <c r="BI4">
         <v>58805</v>
       </c>
       <c r="BJ4">
-        <v>1.226521731</v>
+        <v>1.226521641</v>
       </c>
       <c r="BK4">
         <v>0</v>
@@ -1422,37 +1428,37 @@
         <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="G5">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="H5">
+        <v>3.6</v>
+      </c>
+      <c r="I5">
+        <v>6.8</v>
+      </c>
+      <c r="J5">
         <v>3.65</v>
       </c>
-      <c r="I5">
-        <v>7.6</v>
-      </c>
-      <c r="J5">
-        <v>3.7</v>
-      </c>
       <c r="K5">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="L5">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="M5">
-        <v>4.4</v>
+        <v>990</v>
       </c>
       <c r="N5">
-        <v>1.29</v>
+        <v>1.1</v>
       </c>
       <c r="O5">
-        <v>2.26</v>
+        <v>1.98</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1581,27 +1587,224 @@
         <v>0</v>
       </c>
       <c r="BF5">
-        <v>33130503</v>
+        <v>33130509</v>
       </c>
       <c r="BG5">
-        <v>62505</v>
+        <v>18571</v>
       </c>
       <c r="BH5">
-        <v>2608900</v>
+        <v>48303</v>
       </c>
       <c r="BI5">
         <v>58805</v>
       </c>
       <c r="BJ5">
+        <v>1.226521731</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6">
+        <v>1.68</v>
+      </c>
+      <c r="G6">
+        <v>2.24</v>
+      </c>
+      <c r="H6">
+        <v>3.65</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>3.55</v>
+      </c>
+      <c r="K6">
+        <v>7.8</v>
+      </c>
+      <c r="L6">
+        <v>1.83</v>
+      </c>
+      <c r="M6">
+        <v>3.6</v>
+      </c>
+      <c r="N6">
+        <v>1.38</v>
+      </c>
+      <c r="O6">
+        <v>2.2</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>33130503</v>
+      </c>
+      <c r="BG6">
+        <v>62505</v>
+      </c>
+      <c r="BH6">
+        <v>2608900</v>
+      </c>
+      <c r="BI6">
+        <v>58805</v>
+      </c>
+      <c r="BJ6">
         <v>1.226521821</v>
       </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5">
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
         <v>0</v>
       </c>
     </row>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-26.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="105">
   <si>
     <t>League</t>
   </si>
@@ -211,6 +211,12 @@
     <t>IDMercado_Correct_Score</t>
   </si>
   <si>
+    <t>Serbian First League</t>
+  </si>
+  <si>
+    <t>Italian Serie C</t>
+  </si>
+  <si>
     <t>French National</t>
   </si>
   <si>
@@ -220,12 +226,27 @@
     <t>2024-03-26</t>
   </si>
   <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>12:15:00</t>
+  </si>
+  <si>
     <t>15:00:00</t>
   </si>
   <si>
     <t>16:45:00</t>
   </si>
   <si>
+    <t>Fk Smederevo</t>
+  </si>
+  <si>
+    <t>FK Radnicki Sremska</t>
+  </si>
+  <si>
+    <t>Triestina</t>
+  </si>
+  <si>
     <t>Avranches</t>
   </si>
   <si>
@@ -241,6 +262,15 @@
     <t>Altrincham</t>
   </si>
   <si>
+    <t>FK Graficar</t>
+  </si>
+  <si>
+    <t>OFK Beograd</t>
+  </si>
+  <si>
+    <t>Alessandria</t>
+  </si>
+  <si>
     <t>Villefranche Beaujolais</t>
   </si>
   <si>
@@ -256,13 +286,49 @@
     <t>Wealdstone</t>
   </si>
   <si>
-    <t>33131723</t>
-  </si>
-  <si>
-    <t>1.226632059</t>
-  </si>
-  <si>
-    <t>1.226632062</t>
+    <t>33136989</t>
+  </si>
+  <si>
+    <t>33137920</t>
+  </si>
+  <si>
+    <t>33137410</t>
+  </si>
+  <si>
+    <t>1.226645462</t>
+  </si>
+  <si>
+    <t>1.226665508</t>
+  </si>
+  <si>
+    <t>1.226656025</t>
+  </si>
+  <si>
+    <t>1.226645507</t>
+  </si>
+  <si>
+    <t>1.226665553</t>
+  </si>
+  <si>
+    <t>1.226656070</t>
+  </si>
+  <si>
+    <t>1.226645546</t>
+  </si>
+  <si>
+    <t>1.226665592</t>
+  </si>
+  <si>
+    <t>1.226656109</t>
+  </si>
+  <si>
+    <t>1.226645471</t>
+  </si>
+  <si>
+    <t>1.226665517</t>
+  </si>
+  <si>
+    <t>1.226656034</t>
   </si>
 </sst>
 </file>
@@ -620,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM6"/>
+  <dimension ref="A1:BM9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -828,196 +894,196 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F2">
-        <v>2.4</v>
+        <v>1.45</v>
       </c>
       <c r="G2">
         <v>480</v>
       </c>
       <c r="H2">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J2">
+        <v>1.64</v>
+      </c>
+      <c r="K2">
+        <v>950</v>
+      </c>
+      <c r="L2">
         <v>1.2</v>
       </c>
-      <c r="K2">
-        <v>1000</v>
-      </c>
-      <c r="L2">
-        <v>1.64</v>
-      </c>
       <c r="M2">
-        <v>1.87</v>
+        <v>960</v>
       </c>
       <c r="N2">
-        <v>2.14</v>
+        <v>1.1</v>
       </c>
       <c r="O2">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>33135801</v>
+        <v>1000</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>90</v>
       </c>
       <c r="BG2">
-        <v>2224930</v>
+        <v>15434416</v>
       </c>
       <c r="BH2">
-        <v>19932524</v>
+        <v>25333291</v>
       </c>
       <c r="BI2">
         <v>58805</v>
       </c>
-      <c r="BJ2">
-        <v>1.22662339</v>
-      </c>
-      <c r="BK2">
-        <v>1.226623435</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
+      <c r="BJ2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1025,196 +1091,196 @@
         <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F3">
-        <v>1.49</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>480</v>
       </c>
       <c r="H3">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="I3">
         <v>870</v>
       </c>
       <c r="J3">
+        <v>1.71</v>
+      </c>
+      <c r="K3">
+        <v>950</v>
+      </c>
+      <c r="L3">
         <v>1.2</v>
       </c>
-      <c r="K3">
-        <v>330</v>
-      </c>
-      <c r="L3">
-        <v>1.75</v>
-      </c>
       <c r="M3">
-        <v>2.06</v>
+        <v>110</v>
       </c>
       <c r="N3">
-        <v>1.96</v>
+        <v>1.1</v>
       </c>
       <c r="O3">
-        <v>2.32</v>
+        <v>6.6</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BE3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="BG3">
-        <v>50613810</v>
+        <v>25742292</v>
       </c>
       <c r="BH3">
-        <v>44796</v>
+        <v>9790651</v>
       </c>
       <c r="BI3">
         <v>58805</v>
       </c>
       <c r="BJ3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="BK3" t="s">
-        <v>82</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>100</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -1222,387 +1288,387 @@
         <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F4">
-        <v>2.44</v>
+        <v>1.42</v>
       </c>
       <c r="G4">
-        <v>3.15</v>
+        <v>1.5</v>
       </c>
       <c r="H4">
-        <v>2.52</v>
+        <v>7.8</v>
       </c>
       <c r="I4">
-        <v>3.7</v>
+        <v>11</v>
       </c>
       <c r="J4">
-        <v>3.15</v>
+        <v>4.3</v>
       </c>
       <c r="K4">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>1.59</v>
+        <v>1.78</v>
       </c>
       <c r="M4">
-        <v>3.05</v>
+        <v>1.97</v>
       </c>
       <c r="N4">
-        <v>1.49</v>
+        <v>2.02</v>
       </c>
       <c r="O4">
-        <v>2.68</v>
+        <v>2.3</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>33130512</v>
+        <v>1000</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>92</v>
       </c>
       <c r="BG4">
-        <v>2437395</v>
+        <v>201239</v>
       </c>
       <c r="BH4">
-        <v>69719</v>
+        <v>4077806</v>
       </c>
       <c r="BI4">
         <v>58805</v>
       </c>
-      <c r="BJ4">
-        <v>1.226521641</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
+      <c r="BJ4" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:65">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F5">
-        <v>1.73</v>
+        <v>2.52</v>
       </c>
       <c r="G5">
-        <v>2.12</v>
+        <v>2.92</v>
       </c>
       <c r="H5">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="I5">
+        <v>3.5</v>
+      </c>
+      <c r="J5">
+        <v>2.92</v>
+      </c>
+      <c r="K5">
+        <v>3.65</v>
+      </c>
+      <c r="L5">
+        <v>1.64</v>
+      </c>
+      <c r="M5">
+        <v>1.85</v>
+      </c>
+      <c r="N5">
+        <v>2.16</v>
+      </c>
+      <c r="O5">
+        <v>3.65</v>
+      </c>
+      <c r="P5">
+        <v>1.93</v>
+      </c>
+      <c r="Q5">
+        <v>2.1</v>
+      </c>
+      <c r="R5">
+        <v>1.9</v>
+      </c>
+      <c r="S5">
+        <v>2.08</v>
+      </c>
+      <c r="T5">
+        <v>1.56</v>
+      </c>
+      <c r="U5">
+        <v>980</v>
+      </c>
+      <c r="V5">
+        <v>1.37</v>
+      </c>
+      <c r="W5">
+        <v>980</v>
+      </c>
+      <c r="X5">
+        <v>1.41</v>
+      </c>
+      <c r="Y5">
+        <v>980</v>
+      </c>
+      <c r="Z5">
+        <v>1.41</v>
+      </c>
+      <c r="AA5">
+        <v>1000</v>
+      </c>
+      <c r="AB5">
+        <v>1.93</v>
+      </c>
+      <c r="AC5">
+        <v>980</v>
+      </c>
+      <c r="AD5">
+        <v>1.93</v>
+      </c>
+      <c r="AE5">
+        <v>980</v>
+      </c>
+      <c r="AF5">
+        <v>5.2</v>
+      </c>
+      <c r="AG5">
+        <v>980</v>
+      </c>
+      <c r="AH5">
+        <v>1.41</v>
+      </c>
+      <c r="AI5">
+        <v>1000</v>
+      </c>
+      <c r="AJ5">
+        <v>1.31</v>
+      </c>
+      <c r="AK5">
+        <v>980</v>
+      </c>
+      <c r="AL5">
+        <v>4.6</v>
+      </c>
+      <c r="AM5">
+        <v>980</v>
+      </c>
+      <c r="AN5">
+        <v>5.4</v>
+      </c>
+      <c r="AO5">
+        <v>980</v>
+      </c>
+      <c r="AP5">
         <v>6.8</v>
       </c>
-      <c r="J5">
-        <v>3.65</v>
-      </c>
-      <c r="K5">
-        <v>7</v>
-      </c>
-      <c r="L5">
-        <v>2.02</v>
-      </c>
-      <c r="M5">
-        <v>990</v>
-      </c>
-      <c r="N5">
-        <v>1.1</v>
-      </c>
-      <c r="O5">
-        <v>1.98</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF5">
-        <v>33130509</v>
+        <v>33135801</v>
       </c>
       <c r="BG5">
-        <v>18571</v>
+        <v>2224930</v>
       </c>
       <c r="BH5">
-        <v>48303</v>
+        <v>19932524</v>
       </c>
       <c r="BI5">
         <v>58805</v>
       </c>
       <c r="BJ5">
-        <v>1.226521731</v>
+        <v>1.22662339</v>
       </c>
       <c r="BK5">
-        <v>0</v>
+        <v>1.226623435</v>
       </c>
       <c r="BL5">
         <v>0</v>
@@ -1613,198 +1679,789 @@
     </row>
     <row r="6" spans="1:65">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F6">
-        <v>1.68</v>
+        <v>2.8</v>
       </c>
       <c r="G6">
-        <v>2.24</v>
+        <v>2.98</v>
       </c>
       <c r="H6">
-        <v>3.65</v>
+        <v>2.6</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>2.94</v>
       </c>
       <c r="J6">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="K6">
-        <v>7.8</v>
+        <v>4.1</v>
       </c>
       <c r="L6">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="M6">
-        <v>3.6</v>
+        <v>2.12</v>
       </c>
       <c r="N6">
+        <v>1.89</v>
+      </c>
+      <c r="O6">
+        <v>2.16</v>
+      </c>
+      <c r="P6">
+        <v>1.76</v>
+      </c>
+      <c r="Q6">
+        <v>1.91</v>
+      </c>
+      <c r="R6">
+        <v>2.1</v>
+      </c>
+      <c r="S6">
+        <v>2.32</v>
+      </c>
+      <c r="T6">
+        <v>1.44</v>
+      </c>
+      <c r="U6">
+        <v>980</v>
+      </c>
+      <c r="V6">
+        <v>1.42</v>
+      </c>
+      <c r="W6">
+        <v>980</v>
+      </c>
+      <c r="X6">
+        <v>1.55</v>
+      </c>
+      <c r="Y6">
+        <v>980</v>
+      </c>
+      <c r="Z6">
+        <v>1.55</v>
+      </c>
+      <c r="AA6">
+        <v>1000</v>
+      </c>
+      <c r="AB6">
+        <v>1.42</v>
+      </c>
+      <c r="AC6">
+        <v>980</v>
+      </c>
+      <c r="AD6">
+        <v>1.6</v>
+      </c>
+      <c r="AE6">
+        <v>980</v>
+      </c>
+      <c r="AF6">
+        <v>1.43</v>
+      </c>
+      <c r="AG6">
+        <v>980</v>
+      </c>
+      <c r="AH6">
+        <v>6</v>
+      </c>
+      <c r="AI6">
+        <v>1000</v>
+      </c>
+      <c r="AJ6">
+        <v>2.82</v>
+      </c>
+      <c r="AK6">
+        <v>980</v>
+      </c>
+      <c r="AL6">
+        <v>1.6</v>
+      </c>
+      <c r="AM6">
+        <v>980</v>
+      </c>
+      <c r="AN6">
+        <v>1.55</v>
+      </c>
+      <c r="AO6">
+        <v>980</v>
+      </c>
+      <c r="AP6">
+        <v>1.55</v>
+      </c>
+      <c r="AQ6">
+        <v>1000</v>
+      </c>
+      <c r="AR6">
+        <v>1.55</v>
+      </c>
+      <c r="AS6">
+        <v>1000</v>
+      </c>
+      <c r="AT6">
+        <v>1.55</v>
+      </c>
+      <c r="AU6">
+        <v>1000</v>
+      </c>
+      <c r="AV6">
+        <v>1.55</v>
+      </c>
+      <c r="AW6">
+        <v>1000</v>
+      </c>
+      <c r="AX6">
+        <v>7.2</v>
+      </c>
+      <c r="AY6">
+        <v>1000</v>
+      </c>
+      <c r="AZ6">
+        <v>1.55</v>
+      </c>
+      <c r="BA6">
+        <v>1000</v>
+      </c>
+      <c r="BB6">
+        <v>1.55</v>
+      </c>
+      <c r="BC6">
+        <v>980</v>
+      </c>
+      <c r="BD6">
         <v>1.38</v>
       </c>
-      <c r="O6">
-        <v>2.2</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
       <c r="BE6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF6">
-        <v>33130503</v>
+        <v>33131723</v>
       </c>
       <c r="BG6">
-        <v>62505</v>
+        <v>50613810</v>
       </c>
       <c r="BH6">
-        <v>2608900</v>
+        <v>44796</v>
       </c>
       <c r="BI6">
         <v>58805</v>
       </c>
       <c r="BJ6">
-        <v>1.226521821</v>
+        <v>1.226632059</v>
       </c>
       <c r="BK6">
-        <v>0</v>
+        <v>1.226632062</v>
       </c>
       <c r="BL6">
         <v>0</v>
       </c>
       <c r="BM6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7">
+        <v>2.84</v>
+      </c>
+      <c r="G7">
+        <v>3.2</v>
+      </c>
+      <c r="H7">
+        <v>2.46</v>
+      </c>
+      <c r="I7">
+        <v>2.68</v>
+      </c>
+      <c r="J7">
+        <v>3.45</v>
+      </c>
+      <c r="K7">
+        <v>3.7</v>
+      </c>
+      <c r="L7">
+        <v>1.93</v>
+      </c>
+      <c r="M7">
+        <v>2.16</v>
+      </c>
+      <c r="N7">
+        <v>1.86</v>
+      </c>
+      <c r="O7">
+        <v>2.08</v>
+      </c>
+      <c r="P7">
+        <v>1.72</v>
+      </c>
+      <c r="Q7">
+        <v>1.86</v>
+      </c>
+      <c r="R7">
+        <v>2.16</v>
+      </c>
+      <c r="S7">
+        <v>2.38</v>
+      </c>
+      <c r="T7">
+        <v>11.5</v>
+      </c>
+      <c r="U7">
+        <v>980</v>
+      </c>
+      <c r="V7">
+        <v>4.6</v>
+      </c>
+      <c r="W7">
+        <v>980</v>
+      </c>
+      <c r="X7">
+        <v>5.8</v>
+      </c>
+      <c r="Y7">
+        <v>980</v>
+      </c>
+      <c r="Z7">
+        <v>6</v>
+      </c>
+      <c r="AA7">
+        <v>980</v>
+      </c>
+      <c r="AB7">
+        <v>5</v>
+      </c>
+      <c r="AC7">
+        <v>980</v>
+      </c>
+      <c r="AD7">
+        <v>4.3</v>
+      </c>
+      <c r="AE7">
+        <v>9</v>
+      </c>
+      <c r="AF7">
+        <v>5.1</v>
+      </c>
+      <c r="AG7">
+        <v>980</v>
+      </c>
+      <c r="AH7">
+        <v>5.8</v>
+      </c>
+      <c r="AI7">
+        <v>980</v>
+      </c>
+      <c r="AJ7">
+        <v>5.5</v>
+      </c>
+      <c r="AK7">
+        <v>980</v>
+      </c>
+      <c r="AL7">
+        <v>4.8</v>
+      </c>
+      <c r="AM7">
+        <v>980</v>
+      </c>
+      <c r="AN7">
+        <v>5.9</v>
+      </c>
+      <c r="AO7">
+        <v>980</v>
+      </c>
+      <c r="AP7">
+        <v>6.8</v>
+      </c>
+      <c r="AQ7">
+        <v>980</v>
+      </c>
+      <c r="AR7">
+        <v>6.4</v>
+      </c>
+      <c r="AS7">
+        <v>980</v>
+      </c>
+      <c r="AT7">
+        <v>6</v>
+      </c>
+      <c r="AU7">
+        <v>980</v>
+      </c>
+      <c r="AV7">
+        <v>6.2</v>
+      </c>
+      <c r="AW7">
+        <v>980</v>
+      </c>
+      <c r="AX7">
+        <v>6.6</v>
+      </c>
+      <c r="AY7">
+        <v>980</v>
+      </c>
+      <c r="AZ7">
+        <v>5.8</v>
+      </c>
+      <c r="BA7">
+        <v>980</v>
+      </c>
+      <c r="BB7">
+        <v>5.4</v>
+      </c>
+      <c r="BC7">
+        <v>980</v>
+      </c>
+      <c r="BD7">
+        <v>4.8</v>
+      </c>
+      <c r="BE7">
+        <v>1000</v>
+      </c>
+      <c r="BF7">
+        <v>33130512</v>
+      </c>
+      <c r="BG7">
+        <v>2437395</v>
+      </c>
+      <c r="BH7">
+        <v>69719</v>
+      </c>
+      <c r="BI7">
+        <v>58805</v>
+      </c>
+      <c r="BJ7">
+        <v>1.226521641</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8">
+        <v>1.81</v>
+      </c>
+      <c r="G8">
+        <v>1.94</v>
+      </c>
+      <c r="H8">
+        <v>3.95</v>
+      </c>
+      <c r="I8">
+        <v>4.3</v>
+      </c>
+      <c r="J8">
+        <v>3.85</v>
+      </c>
+      <c r="K8">
+        <v>4.9</v>
+      </c>
+      <c r="L8">
+        <v>2.56</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>1.5</v>
+      </c>
+      <c r="O8">
+        <v>1.64</v>
+      </c>
+      <c r="P8">
+        <v>1.53</v>
+      </c>
+      <c r="Q8">
+        <v>1.67</v>
+      </c>
+      <c r="R8">
+        <v>2.5</v>
+      </c>
+      <c r="S8">
+        <v>2.88</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>980</v>
+      </c>
+      <c r="V8">
+        <v>4</v>
+      </c>
+      <c r="W8">
+        <v>980</v>
+      </c>
+      <c r="X8">
+        <v>4</v>
+      </c>
+      <c r="Y8">
+        <v>980</v>
+      </c>
+      <c r="Z8">
+        <v>4.1</v>
+      </c>
+      <c r="AA8">
+        <v>980</v>
+      </c>
+      <c r="AB8">
+        <v>3.65</v>
+      </c>
+      <c r="AC8">
+        <v>980</v>
+      </c>
+      <c r="AD8">
+        <v>3.45</v>
+      </c>
+      <c r="AE8">
+        <v>980</v>
+      </c>
+      <c r="AF8">
+        <v>3.75</v>
+      </c>
+      <c r="AG8">
+        <v>980</v>
+      </c>
+      <c r="AH8">
+        <v>4</v>
+      </c>
+      <c r="AI8">
+        <v>980</v>
+      </c>
+      <c r="AJ8">
+        <v>3.6</v>
+      </c>
+      <c r="AK8">
+        <v>18.5</v>
+      </c>
+      <c r="AL8">
+        <v>9</v>
+      </c>
+      <c r="AM8">
+        <v>13.5</v>
+      </c>
+      <c r="AN8">
+        <v>3.75</v>
+      </c>
+      <c r="AO8">
+        <v>980</v>
+      </c>
+      <c r="AP8">
+        <v>4</v>
+      </c>
+      <c r="AQ8">
+        <v>980</v>
+      </c>
+      <c r="AR8">
+        <v>3.8</v>
+      </c>
+      <c r="AS8">
+        <v>980</v>
+      </c>
+      <c r="AT8">
+        <v>3.75</v>
+      </c>
+      <c r="AU8">
+        <v>980</v>
+      </c>
+      <c r="AV8">
+        <v>3.85</v>
+      </c>
+      <c r="AW8">
+        <v>980</v>
+      </c>
+      <c r="AX8">
+        <v>4.1</v>
+      </c>
+      <c r="AY8">
+        <v>980</v>
+      </c>
+      <c r="AZ8">
+        <v>2.92</v>
+      </c>
+      <c r="BA8">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BB8">
+        <v>3.75</v>
+      </c>
+      <c r="BC8">
+        <v>980</v>
+      </c>
+      <c r="BD8">
+        <v>4.2</v>
+      </c>
+      <c r="BE8">
+        <v>1000</v>
+      </c>
+      <c r="BF8">
+        <v>33130509</v>
+      </c>
+      <c r="BG8">
+        <v>18571</v>
+      </c>
+      <c r="BH8">
+        <v>48303</v>
+      </c>
+      <c r="BI8">
+        <v>58805</v>
+      </c>
+      <c r="BJ8">
+        <v>1.226521731</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9">
+        <v>1.86</v>
+      </c>
+      <c r="G9">
+        <v>1.97</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>4.4</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>4.5</v>
+      </c>
+      <c r="L9">
+        <v>2.4</v>
+      </c>
+      <c r="M9">
+        <v>2.76</v>
+      </c>
+      <c r="N9">
+        <v>1.57</v>
+      </c>
+      <c r="O9">
+        <v>1.71</v>
+      </c>
+      <c r="P9">
+        <v>1.59</v>
+      </c>
+      <c r="Q9">
+        <v>1.7</v>
+      </c>
+      <c r="R9">
+        <v>2.44</v>
+      </c>
+      <c r="S9">
+        <v>2.7</v>
+      </c>
+      <c r="T9">
+        <v>16.5</v>
+      </c>
+      <c r="U9">
+        <v>980</v>
+      </c>
+      <c r="V9">
+        <v>15</v>
+      </c>
+      <c r="W9">
+        <v>980</v>
+      </c>
+      <c r="X9">
+        <v>4.8</v>
+      </c>
+      <c r="Y9">
+        <v>980</v>
+      </c>
+      <c r="Z9">
+        <v>4.9</v>
+      </c>
+      <c r="AA9">
+        <v>980</v>
+      </c>
+      <c r="AB9">
+        <v>9.6</v>
+      </c>
+      <c r="AC9">
+        <v>980</v>
+      </c>
+      <c r="AD9">
+        <v>7.6</v>
+      </c>
+      <c r="AE9">
+        <v>980</v>
+      </c>
+      <c r="AF9">
+        <v>12</v>
+      </c>
+      <c r="AG9">
+        <v>980</v>
+      </c>
+      <c r="AH9">
+        <v>4.7</v>
+      </c>
+      <c r="AI9">
+        <v>980</v>
+      </c>
+      <c r="AJ9">
+        <v>10</v>
+      </c>
+      <c r="AK9">
+        <v>17.5</v>
+      </c>
+      <c r="AL9">
+        <v>7.8</v>
+      </c>
+      <c r="AM9">
+        <v>13</v>
+      </c>
+      <c r="AN9">
+        <v>12</v>
+      </c>
+      <c r="AO9">
+        <v>980</v>
+      </c>
+      <c r="AP9">
+        <v>4.8</v>
+      </c>
+      <c r="AQ9">
+        <v>980</v>
+      </c>
+      <c r="AR9">
+        <v>16</v>
+      </c>
+      <c r="AS9">
+        <v>980</v>
+      </c>
+      <c r="AT9">
+        <v>12.5</v>
+      </c>
+      <c r="AU9">
+        <v>22</v>
+      </c>
+      <c r="AV9">
+        <v>4.9</v>
+      </c>
+      <c r="AW9">
+        <v>980</v>
+      </c>
+      <c r="AX9">
+        <v>4.9</v>
+      </c>
+      <c r="AY9">
+        <v>980</v>
+      </c>
+      <c r="AZ9">
+        <v>3.55</v>
+      </c>
+      <c r="BA9">
+        <v>11</v>
+      </c>
+      <c r="BB9">
+        <v>4.6</v>
+      </c>
+      <c r="BC9">
+        <v>980</v>
+      </c>
+      <c r="BD9">
+        <v>5.2</v>
+      </c>
+      <c r="BE9">
+        <v>1000</v>
+      </c>
+      <c r="BF9">
+        <v>33130503</v>
+      </c>
+      <c r="BG9">
+        <v>62505</v>
+      </c>
+      <c r="BH9">
+        <v>2608900</v>
+      </c>
+      <c r="BI9">
+        <v>58805</v>
+      </c>
+      <c r="BJ9">
+        <v>1.226521821</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
         <v>0</v>
       </c>
     </row>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-26.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
   <si>
     <t>League</t>
   </si>
@@ -284,51 +284,6 @@
   </si>
   <si>
     <t>Wealdstone</t>
-  </si>
-  <si>
-    <t>33136989</t>
-  </si>
-  <si>
-    <t>33137920</t>
-  </si>
-  <si>
-    <t>33137410</t>
-  </si>
-  <si>
-    <t>1.226645462</t>
-  </si>
-  <si>
-    <t>1.226665508</t>
-  </si>
-  <si>
-    <t>1.226656025</t>
-  </si>
-  <si>
-    <t>1.226645507</t>
-  </si>
-  <si>
-    <t>1.226665553</t>
-  </si>
-  <si>
-    <t>1.226656070</t>
-  </si>
-  <si>
-    <t>1.226645546</t>
-  </si>
-  <si>
-    <t>1.226665592</t>
-  </si>
-  <si>
-    <t>1.226656109</t>
-  </si>
-  <si>
-    <t>1.226645471</t>
-  </si>
-  <si>
-    <t>1.226665517</t>
-  </si>
-  <si>
-    <t>1.226656034</t>
   </si>
 </sst>
 </file>
@@ -1061,8 +1016,8 @@
       <c r="BE2">
         <v>1000</v>
       </c>
-      <c r="BF2" t="s">
-        <v>90</v>
+      <c r="BF2">
+        <v>33136989</v>
       </c>
       <c r="BG2">
         <v>15434416</v>
@@ -1073,17 +1028,17 @@
       <c r="BI2">
         <v>58805</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>96</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>102</v>
+      <c r="BJ2">
+        <v>1.226645462</v>
+      </c>
+      <c r="BK2">
+        <v>1.226645507</v>
+      </c>
+      <c r="BL2">
+        <v>1.226645546</v>
+      </c>
+      <c r="BM2">
+        <v>1.226645471</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1258,8 +1213,8 @@
       <c r="BE3">
         <v>1000</v>
       </c>
-      <c r="BF3" t="s">
-        <v>91</v>
+      <c r="BF3">
+        <v>33137920</v>
       </c>
       <c r="BG3">
         <v>25742292</v>
@@ -1270,17 +1225,17 @@
       <c r="BI3">
         <v>58805</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>94</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>100</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>103</v>
+      <c r="BJ3">
+        <v>1.226665508</v>
+      </c>
+      <c r="BK3">
+        <v>1.226665553</v>
+      </c>
+      <c r="BL3">
+        <v>1.226665592</v>
+      </c>
+      <c r="BM3">
+        <v>1.226665517</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -1455,8 +1410,8 @@
       <c r="BE4">
         <v>1000</v>
       </c>
-      <c r="BF4" t="s">
-        <v>92</v>
+      <c r="BF4">
+        <v>33137410</v>
       </c>
       <c r="BG4">
         <v>201239</v>
@@ -1467,17 +1422,17 @@
       <c r="BI4">
         <v>58805</v>
       </c>
-      <c r="BJ4" t="s">
-        <v>95</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>104</v>
+      <c r="BJ4">
+        <v>1.226656025</v>
+      </c>
+      <c r="BK4">
+        <v>1.22665607</v>
+      </c>
+      <c r="BL4">
+        <v>1.226656109</v>
+      </c>
+      <c r="BM4">
+        <v>1.226656034</v>
       </c>
     </row>
     <row r="5" spans="1:65">
